--- a/NEW HR/JABINES, MARIA SHELLY.xlsx
+++ b/NEW HR/JABINES, MARIA SHELLY.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -628,17 +628,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -648,6 +645,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,7 +1178,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1221,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,7 +1285,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1345,7 +1345,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1411,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1474,7 +1474,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,7 +1572,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1631,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1696,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1739,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,7 +1814,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2000,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2066,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +2124,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2190,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2246,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2321,7 +2321,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2364,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2430,7 +2430,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2486,7 +2486,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2961,10 +2961,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A59" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,14 +2994,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3012,14 +3012,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3032,16 +3032,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3067,18 +3067,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3125,7 +3125,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3135,7 +3135,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4513,15 +4513,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -5426,17 +5430,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5471,10 +5475,10 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5504,14 +5508,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5522,14 +5526,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5542,16 +5546,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5577,18 +5581,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5645,7 +5649,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>115.80000000000001</v>
+        <v>114.80000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6690,8 +6694,12 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C57" s="13"/>
       <c r="D57" s="39"/>
       <c r="E57" s="9"/>
@@ -6700,10 +6708,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H57" s="39"/>
+      <c r="H57" s="39">
+        <v>1</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="49">
+        <v>45000</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>

--- a/NEW HR/JABINES, MARIA SHELLY.xlsx
+++ b/NEW HR/JABINES, MARIA SHELLY.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>EMERGENCY 2/16/2023</t>
+  </si>
+  <si>
+    <t>5/3,4/2023</t>
   </si>
 </sst>
 </file>
@@ -5478,7 +5481,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5639,7 +5642,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>96.254999999999995</v>
+        <v>94.254999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5649,7 +5652,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>114.80000000000001</v>
+        <v>113.80000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6718,8 +6721,12 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
@@ -6728,16 +6735,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H58" s="39"/>
+      <c r="H58" s="39">
+        <v>1</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="49">
+        <v>45042</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C59" s="13"/>
-      <c r="D59" s="39"/>
+      <c r="D59" s="39">
+        <v>2</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13" t="str">
@@ -6747,7 +6762,9 @@
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>

--- a/NEW HR/JABINES, MARIA SHELLY.xlsx
+++ b/NEW HR/JABINES, MARIA SHELLY.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -631,14 +631,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -648,9 +651,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,7 +1181,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +1224,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1288,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1348,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1414,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1575,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1634,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1699,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1742,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1817,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2003,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2069,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2127,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2193,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2249,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2324,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2367,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2433,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2489,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2997,14 +2997,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3015,14 +3015,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3035,16 +3035,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3070,18 +3070,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5433,17 +5433,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5481,7 +5481,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5511,14 +5511,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5529,14 +5529,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5549,16 +5549,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5584,18 +5584,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5642,7 +5642,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>94.254999999999995</v>
+        <v>93.254999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5652,7 +5652,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>113.80000000000001</v>
+        <v>112.80000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6767,8 +6767,12 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
@@ -6777,16 +6781,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H60" s="39"/>
+      <c r="H60" s="39">
+        <v>1</v>
+      </c>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="49">
+        <v>45056</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C61" s="13"/>
-      <c r="D61" s="39"/>
+      <c r="D61" s="39">
+        <v>1</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13" t="str">
@@ -6796,7 +6808,9 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="49">
+        <v>45063</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>

--- a/NEW HR/JABINES, MARIA SHELLY.xlsx
+++ b/NEW HR/JABINES, MARIA SHELLY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2964,10 +2964,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A59" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77:C78"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A44"/>
+      <selection activeCell="J64" sqref="J64"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5478,10 +5478,10 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5642,7 +5642,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>93.254999999999995</v>
+        <v>92.254999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5652,7 +5652,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>112.80000000000001</v>
+        <v>111.80000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6813,8 +6813,12 @@
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
@@ -6823,16 +6827,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H62" s="39"/>
+      <c r="H62" s="39">
+        <v>1</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="49">
+        <v>45092</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C63" s="13"/>
-      <c r="D63" s="39"/>
+      <c r="D63" s="39">
+        <v>1</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
       <c r="G63" s="13" t="str">
@@ -6842,7 +6854,9 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="49">
+        <v>45104</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>

--- a/NEW HR/JABINES, MARIA SHELLY.xlsx
+++ b/NEW HR/JABINES, MARIA SHELLY.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC559AF4-00FD-4FFC-AAF7-346DD753CBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE CREDITS'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE EARN'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -631,17 +632,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -651,6 +649,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,7 +1182,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +1225,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1289,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1349,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1415,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1478,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1576,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1635,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1700,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1743,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1818,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2004,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2070,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2128,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2194,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2250,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2325,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2368,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2434,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2490,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2569,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2585,25 +2586,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2615,25 +2616,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2940,7 +2941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2950,7 +2951,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2958,34 +2959,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="J64" sqref="J64"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2997,16 +2998,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3015,16 +3016,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3035,18 +3036,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3054,7 +3055,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3067,24 +3068,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3128,7 +3129,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3138,12 +3139,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3165,7 +3166,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3185,7 +3186,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3205,7 +3206,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3225,7 +3226,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3245,7 +3246,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3265,7 +3266,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3285,7 +3286,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3305,7 +3306,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3325,7 +3326,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3345,7 +3346,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3365,7 +3366,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3385,7 +3386,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3409,7 +3410,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3427,7 +3428,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3447,7 +3448,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3467,7 +3468,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3487,7 +3488,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3507,7 +3508,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3527,7 +3528,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3547,7 +3548,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3567,7 +3568,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3587,7 +3588,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3607,7 +3608,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3627,7 +3628,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3647,7 +3648,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3671,7 +3672,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>47</v>
       </c>
@@ -3689,7 +3690,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3709,7 +3710,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3729,7 +3730,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3749,7 +3750,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3769,7 +3770,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3789,7 +3790,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3809,7 +3810,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3829,7 +3830,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3849,7 +3850,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3869,7 +3870,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3889,7 +3890,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3909,7 +3910,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3933,7 +3934,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>48</v>
       </c>
@@ -3951,7 +3952,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -3971,7 +3972,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -3991,7 +3992,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4011,7 +4012,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4031,7 +4032,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4051,7 +4052,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4071,7 +4072,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4091,7 +4092,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4111,7 +4112,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4131,7 +4132,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4151,7 +4152,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4171,7 +4172,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4195,7 +4196,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>49</v>
       </c>
@@ -4213,7 +4214,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4233,7 +4234,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4253,7 +4254,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4273,7 +4274,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4293,7 +4294,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4313,7 +4314,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4333,7 +4334,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4353,7 +4354,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4373,7 +4374,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4393,7 +4394,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4413,7 +4414,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4433,7 +4434,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4457,7 +4458,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>65</v>
       </c>
@@ -4475,9 +4476,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4495,9 +4496,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4515,9 +4516,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4535,56 +4536,70 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>45046</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>45077</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4599,8 +4614,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4615,8 +4632,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4631,8 +4650,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4647,8 +4668,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4663,8 +4686,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4679,8 +4704,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4695,8 +4722,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4711,7 +4740,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4727,7 +4756,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4743,7 +4772,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4759,7 +4788,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4775,7 +4804,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4791,7 +4820,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4807,7 +4836,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4823,7 +4852,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4839,7 +4868,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4855,7 +4884,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4871,7 +4900,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4887,7 +4916,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4903,7 +4932,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4919,7 +4948,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4935,7 +4964,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4951,7 +4980,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4967,7 +4996,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4983,7 +5012,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4999,7 +5028,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5015,7 +5044,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5031,7 +5060,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5047,7 +5076,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5063,7 +5092,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5079,7 +5108,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5095,7 +5124,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5111,7 +5140,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5127,7 +5156,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5143,7 +5172,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5159,7 +5188,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5175,7 +5204,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5191,7 +5220,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5207,7 +5236,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5223,7 +5252,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5239,7 +5268,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5255,7 +5284,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5271,7 +5300,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5287,7 +5316,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5303,7 +5332,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5319,7 +5348,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5335,7 +5364,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5351,7 +5380,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5367,7 +5396,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5383,7 +5412,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5399,7 +5428,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5415,7 +5444,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5433,23 +5462,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5472,34 +5501,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5511,16 +5540,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5529,16 +5558,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5549,18 +5578,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5568,7 +5597,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5581,24 +5610,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5633,7 +5662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5642,7 +5671,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>92.254999999999995</v>
+        <v>90.254999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5657,7 +5686,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5679,7 +5708,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5701,7 +5730,7 @@
         <v>43124</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>43132</v>
@@ -5726,7 +5755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A14" si="0">EDATE(A12,1)</f>
         <v>43160</v>
@@ -5751,7 +5780,7 @@
         <v>43165</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -5774,7 +5803,7 @@
         <v>43193</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -5798,7 +5827,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -5822,7 +5851,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -5846,7 +5875,7 @@
         <v>43319</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>51</v>
@@ -5866,7 +5895,7 @@
         <v>43328</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43405</v>
       </c>
@@ -5890,7 +5919,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>46</v>
       </c>
@@ -5908,7 +5937,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43586</v>
       </c>
@@ -5932,7 +5961,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>54</v>
@@ -5954,7 +5983,7 @@
         <v>43599</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>51</v>
@@ -5974,7 +6003,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43617</v>
       </c>
@@ -5998,7 +6027,7 @@
         <v>43634</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43678</v>
       </c>
@@ -6022,7 +6051,7 @@
         <v>43685</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>51</v>
@@ -6042,7 +6071,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>54</v>
@@ -6064,7 +6093,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
@@ -6084,7 +6113,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43709</v>
       </c>
@@ -6108,7 +6137,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43739</v>
       </c>
@@ -6132,7 +6161,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43800</v>
       </c>
@@ -6156,7 +6185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>47</v>
       </c>
@@ -6174,7 +6203,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43831</v>
       </c>
@@ -6196,7 +6225,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43862</v>
       </c>
@@ -6220,7 +6249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43891</v>
       </c>
@@ -6244,7 +6273,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>51</v>
@@ -6264,7 +6293,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43983</v>
       </c>
@@ -6288,7 +6317,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44013</v>
       </c>
@@ -6310,7 +6339,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>48</v>
       </c>
@@ -6328,7 +6357,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44228</v>
       </c>
@@ -6350,7 +6379,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44409</v>
       </c>
@@ -6372,7 +6401,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>54</v>
@@ -6394,7 +6423,7 @@
         <v>44527</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
         <v>49</v>
       </c>
@@ -6412,7 +6441,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44682</v>
       </c>
@@ -6436,7 +6465,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44743</v>
       </c>
@@ -6458,7 +6487,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>51</v>
@@ -6478,7 +6507,7 @@
         <v>44770</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44774</v>
       </c>
@@ -6502,7 +6531,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>51</v>
@@ -6522,7 +6551,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>56</v>
@@ -6544,7 +6573,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44835</v>
       </c>
@@ -6568,7 +6597,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44866</v>
       </c>
@@ -6588,7 +6617,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>54</v>
@@ -6610,7 +6639,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44896</v>
       </c>
@@ -6634,7 +6663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="48" t="s">
         <v>65</v>
       </c>
@@ -6652,7 +6681,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44927</v>
       </c>
@@ -6674,7 +6703,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44958</v>
       </c>
@@ -6696,7 +6725,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44986</v>
       </c>
@@ -6720,7 +6749,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>45017</v>
       </c>
@@ -6744,7 +6773,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>57</v>
@@ -6766,7 +6795,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>45047</v>
       </c>
@@ -6790,7 +6819,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>56</v>
@@ -6812,7 +6841,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>45078</v>
       </c>
@@ -6836,7 +6865,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>56</v>
@@ -6858,11 +6887,17 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="40">
+        <v>45106</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C64" s="13"/>
-      <c r="D64" s="39"/>
+      <c r="D64" s="39">
+        <v>1</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13" t="str">
@@ -6872,13 +6907,19 @@
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="49">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C65" s="13"/>
-      <c r="D65" s="39"/>
+      <c r="D65" s="39">
+        <v>1</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13" t="str">
@@ -6888,9 +6929,11 @@
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="49">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6906,7 +6949,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6922,7 +6965,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6938,7 +6981,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6954,7 +6997,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6970,7 +7013,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6986,7 +7029,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7002,7 +7045,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7018,7 +7061,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7034,7 +7077,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7050,7 +7093,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7066,7 +7109,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7082,7 +7125,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7098,7 +7141,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7114,7 +7157,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7130,7 +7173,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7146,7 +7189,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7162,7 +7205,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7178,7 +7221,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7194,7 +7237,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7210,7 +7253,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7226,7 +7269,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7242,7 +7285,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7258,7 +7301,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7274,7 +7317,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7290,7 +7333,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7306,7 +7349,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7322,7 +7365,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7338,7 +7381,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7354,7 +7397,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7370,7 +7413,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7386,7 +7429,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7402,7 +7445,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7418,7 +7461,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7434,7 +7477,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7450,7 +7493,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7466,7 +7509,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7482,7 +7525,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7498,7 +7541,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7514,7 +7557,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7530,7 +7573,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7546,7 +7589,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7562,7 +7605,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7578,7 +7621,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7594,7 +7637,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7610,7 +7653,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7626,7 +7669,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7642,7 +7685,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7658,7 +7701,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7674,7 +7717,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7690,7 +7733,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7706,7 +7749,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7722,7 +7765,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7738,7 +7781,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7754,7 +7797,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7770,7 +7813,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7786,7 +7829,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7802,7 +7845,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7818,7 +7861,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7834,7 +7877,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7850,7 +7893,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7866,7 +7909,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7882,7 +7925,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7898,7 +7941,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7914,7 +7957,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -7930,7 +7973,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -7961,10 +8004,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7987,28 +8030,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -8021,7 +8064,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8050,7 +8093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>117.255</v>
       </c>
@@ -8074,17 +8117,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8105,7 +8148,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8132,7 +8175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8158,7 +8201,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8184,7 +8227,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8210,7 +8253,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8236,7 +8279,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8262,7 +8305,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8288,7 +8331,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8314,7 +8357,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8334,7 +8377,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8354,7 +8397,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8374,7 +8417,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8395,7 +8438,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8416,7 +8459,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8437,7 +8480,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8458,7 +8501,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8479,7 +8522,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8500,7 +8543,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8521,7 +8564,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8542,7 +8585,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8563,7 +8606,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8584,7 +8627,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8605,7 +8648,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8626,7 +8669,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8647,7 +8690,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8668,7 +8711,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8689,7 +8732,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8710,7 +8753,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8731,7 +8774,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8752,7 +8795,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8773,7 +8816,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8794,7 +8837,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8803,7 +8846,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8812,7 +8855,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8821,7 +8864,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8830,7 +8873,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8839,7 +8882,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8848,7 +8891,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8857,7 +8900,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8866,7 +8909,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8875,7 +8918,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8884,7 +8927,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8893,7 +8936,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8902,7 +8945,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8911,7 +8954,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8920,7 +8963,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8929,7 +8972,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8938,7 +8981,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8947,7 +8990,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8956,7 +8999,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8965,7 +9008,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8974,7 +9017,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8983,7 +9026,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8992,7 +9035,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9001,7 +9044,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9010,7 +9053,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9019,7 +9062,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9028,7 +9071,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9037,7 +9080,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9046,7 +9089,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9055,7 +9098,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/JABINES, MARIA SHELLY.xlsx
+++ b/NEW HR/JABINES, MARIA SHELLY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC559AF4-00FD-4FFC-AAF7-346DD753CBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE CREDITS'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE EARN'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -246,11 +245,20 @@
   <si>
     <t>5/3,4/2023</t>
   </si>
+  <si>
+    <t>8/14,15,16/2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>8/3,4/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1182,7 +1190,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1233,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,7 +1297,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1357,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1423,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1486,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1584,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1643,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1708,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1751,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,7 +1826,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2012,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2070,7 +2078,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,7 +2136,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2194,7 +2202,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2258,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2333,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2376,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,7 +2442,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2498,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2577,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2586,25 +2594,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2616,25 +2624,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2941,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2951,7 +2959,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2959,34 +2967,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A76" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="J64" sqref="J64"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3007,7 +3015,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3025,7 +3033,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3047,7 +3055,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3055,7 +3063,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3068,7 +3076,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -3085,7 +3093,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3120,7 +3128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3129,7 +3137,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3139,12 +3147,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3166,7 +3174,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3186,7 +3194,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3206,7 +3214,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3226,7 +3234,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3246,7 +3254,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3266,7 +3274,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3286,7 +3294,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3306,7 +3314,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3326,7 +3334,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3346,7 +3354,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3366,7 +3374,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3386,7 +3394,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3410,7 +3418,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3428,7 +3436,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3448,7 +3456,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3468,7 +3476,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3488,7 +3496,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3508,7 +3516,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3528,7 +3536,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3548,7 +3556,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3568,7 +3576,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3588,7 +3596,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3608,7 +3616,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3628,7 +3636,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3648,7 +3656,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3672,7 +3680,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>47</v>
       </c>
@@ -3690,7 +3698,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3710,7 +3718,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3730,7 +3738,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3750,7 +3758,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3770,7 +3778,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3790,7 +3798,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3810,7 +3818,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3830,7 +3838,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3850,7 +3858,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3870,7 +3878,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3890,7 +3898,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3910,7 +3918,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3934,7 +3942,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>48</v>
       </c>
@@ -3952,7 +3960,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -3972,7 +3980,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -3992,7 +4000,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4012,7 +4020,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4032,7 +4040,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4052,7 +4060,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4072,7 +4080,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4092,7 +4100,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4112,7 +4120,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4132,7 +4140,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4152,7 +4160,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4172,7 +4180,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4196,7 +4204,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>49</v>
       </c>
@@ -4214,7 +4222,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4234,7 +4242,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4254,7 +4262,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4274,7 +4282,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4294,7 +4302,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4314,7 +4322,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4334,7 +4342,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4354,7 +4362,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4374,7 +4382,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4394,7 +4402,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4414,7 +4422,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4434,7 +4442,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4458,7 +4466,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>65</v>
       </c>
@@ -4476,7 +4484,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4496,7 +4504,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4516,7 +4524,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4536,7 +4544,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4556,7 +4564,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4576,7 +4584,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -4596,61 +4604,71 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="B83" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="49">
+        <v>45168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="49"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -4668,7 +4686,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -4686,7 +4704,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45291</v>
       </c>
@@ -4704,7 +4722,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45322</v>
       </c>
@@ -4722,7 +4740,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45351</v>
       </c>
@@ -4740,7 +4758,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4756,7 +4774,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4772,7 +4790,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4788,7 +4806,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4804,7 +4822,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4820,7 +4838,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4836,7 +4854,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4852,7 +4870,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4868,7 +4886,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4884,7 +4902,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4900,7 +4918,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4916,7 +4934,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4932,7 +4950,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4948,7 +4966,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4964,7 +4982,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4980,7 +4998,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4996,7 +5014,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5012,7 +5030,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5028,7 +5046,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5044,7 +5062,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5060,7 +5078,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5076,7 +5094,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5092,7 +5110,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5108,7 +5126,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5124,7 +5142,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5140,7 +5158,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5156,7 +5174,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5172,7 +5190,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5188,7 +5206,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5204,7 +5222,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5220,7 +5238,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5236,7 +5254,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5252,7 +5270,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5268,7 +5286,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5284,7 +5302,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5300,7 +5318,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5316,7 +5334,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5332,7 +5350,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5348,7 +5366,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5364,7 +5382,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5380,7 +5398,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5396,7 +5414,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5412,7 +5430,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5428,7 +5446,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5444,7 +5462,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5475,10 +5493,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5501,34 +5519,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A58" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A59" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C84:C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5549,7 +5567,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5567,7 +5585,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5589,7 +5607,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5597,7 +5615,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5610,7 +5628,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="58" t="s">
@@ -5627,7 +5645,7 @@
       <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5662,7 +5680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5671,7 +5689,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>90.254999999999995</v>
+        <v>87.254999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5681,12 +5699,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>111.80000000000001</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5708,7 +5726,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5730,7 +5748,7 @@
         <v>43124</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>43132</v>
@@ -5755,7 +5773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A14" si="0">EDATE(A12,1)</f>
         <v>43160</v>
@@ -5780,7 +5798,7 @@
         <v>43165</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>43191</v>
@@ -5803,7 +5821,7 @@
         <v>43193</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -5827,7 +5845,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -5851,7 +5869,7 @@
         <v>43278</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -5875,7 +5893,7 @@
         <v>43319</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>51</v>
@@ -5895,7 +5913,7 @@
         <v>43328</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43405</v>
       </c>
@@ -5919,7 +5937,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>46</v>
       </c>
@@ -5937,7 +5955,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43586</v>
       </c>
@@ -5961,7 +5979,7 @@
         <v>43588</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>54</v>
@@ -5983,7 +6001,7 @@
         <v>43599</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>51</v>
@@ -6003,7 +6021,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43617</v>
       </c>
@@ -6027,7 +6045,7 @@
         <v>43634</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43678</v>
       </c>
@@ -6051,7 +6069,7 @@
         <v>43685</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>51</v>
@@ -6071,7 +6089,7 @@
         <v>43693</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>54</v>
@@ -6093,7 +6111,7 @@
         <v>43679</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
@@ -6113,7 +6131,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43709</v>
       </c>
@@ -6137,7 +6155,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43739</v>
       </c>
@@ -6161,7 +6179,7 @@
         <v>43760</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43800</v>
       </c>
@@ -6185,7 +6203,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>47</v>
       </c>
@@ -6203,7 +6221,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43831</v>
       </c>
@@ -6225,7 +6243,7 @@
         <v>43854</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43862</v>
       </c>
@@ -6249,7 +6267,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43891</v>
       </c>
@@ -6273,7 +6291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>51</v>
@@ -6293,7 +6311,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43983</v>
       </c>
@@ -6317,7 +6335,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44013</v>
       </c>
@@ -6339,7 +6357,7 @@
         <v>44027</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>48</v>
       </c>
@@ -6357,7 +6375,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44228</v>
       </c>
@@ -6379,7 +6397,7 @@
         <v>44244</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44409</v>
       </c>
@@ -6401,7 +6419,7 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>54</v>
@@ -6423,7 +6441,7 @@
         <v>44527</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>49</v>
       </c>
@@ -6441,7 +6459,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44682</v>
       </c>
@@ -6465,7 +6483,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44743</v>
       </c>
@@ -6487,7 +6505,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>51</v>
@@ -6507,7 +6525,7 @@
         <v>44770</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44774</v>
       </c>
@@ -6531,7 +6549,7 @@
         <v>44792</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>51</v>
@@ -6551,7 +6569,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>56</v>
@@ -6573,7 +6591,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44835</v>
       </c>
@@ -6597,7 +6615,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44866</v>
       </c>
@@ -6617,7 +6635,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>54</v>
@@ -6639,7 +6657,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44896</v>
       </c>
@@ -6663,7 +6681,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
         <v>65</v>
       </c>
@@ -6681,7 +6699,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44927</v>
       </c>
@@ -6703,7 +6721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44958</v>
       </c>
@@ -6725,7 +6743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44986</v>
       </c>
@@ -6749,7 +6767,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>45017</v>
       </c>
@@ -6773,7 +6791,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>57</v>
@@ -6795,7 +6813,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>45047</v>
       </c>
@@ -6819,7 +6837,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>56</v>
@@ -6841,7 +6859,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>45078</v>
       </c>
@@ -6865,7 +6883,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>56</v>
@@ -6887,7 +6905,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>45106</v>
       </c>
@@ -6911,7 +6929,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>56</v>
@@ -6933,11 +6951,17 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
-      <c r="B66" s="20"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C66" s="13"/>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>3</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13" t="str">
@@ -6947,11 +6971,15 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
@@ -6960,14 +6988,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H67" s="39"/>
+      <c r="H67" s="39">
+        <v>2</v>
+      </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
-      <c r="B68" s="20"/>
+      <c r="K67" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="40">
+        <v>45173</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
@@ -6976,14 +7012,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H68" s="39"/>
+      <c r="H68" s="39">
+        <v>1</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="49">
+        <v>45173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
@@ -6992,12 +7034,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H69" s="39"/>
+      <c r="H69" s="39">
+        <v>1</v>
+      </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="49">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7013,7 +7059,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7029,7 +7075,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7045,7 +7091,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7061,7 +7107,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7077,7 +7123,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7093,7 +7139,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7109,7 +7155,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7125,7 +7171,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7141,7 +7187,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7157,7 +7203,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7173,7 +7219,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7189,7 +7235,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7205,7 +7251,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7221,7 +7267,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7237,7 +7283,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7253,7 +7299,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7269,7 +7315,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7285,7 +7331,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7301,7 +7347,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7317,7 +7363,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7333,7 +7379,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7349,7 +7395,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7365,7 +7411,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7381,7 +7427,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7397,7 +7443,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7413,7 +7459,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7429,7 +7475,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7445,7 +7491,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7461,7 +7507,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7477,7 +7523,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7493,7 +7539,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7509,7 +7555,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7525,7 +7571,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7541,7 +7587,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7557,7 +7603,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7573,7 +7619,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7589,7 +7635,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7605,7 +7651,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7621,7 +7667,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7637,7 +7683,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7653,7 +7699,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7669,7 +7715,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7685,7 +7731,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7701,7 +7747,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7717,7 +7763,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7733,7 +7779,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7749,7 +7795,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7765,7 +7811,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7781,7 +7827,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7797,7 +7843,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7813,7 +7859,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7829,7 +7875,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7845,7 +7891,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7861,7 +7907,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7877,7 +7923,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7893,7 +7939,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7909,7 +7955,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7925,7 +7971,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7941,7 +7987,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7957,7 +8003,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -7973,7 +8019,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41"/>
       <c r="B131" s="15"/>
       <c r="C131" s="42"/>
@@ -8004,10 +8050,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8030,28 +8076,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -8064,7 +8110,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8093,7 +8139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>117.255</v>
       </c>
@@ -8117,17 +8163,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8148,7 +8194,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8175,7 +8221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8201,7 +8247,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8227,7 +8273,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8253,7 +8299,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8279,7 +8325,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8305,7 +8351,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8331,7 +8377,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8357,7 +8403,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8377,7 +8423,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8397,7 +8443,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8417,7 +8463,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8438,7 +8484,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8459,7 +8505,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8480,7 +8526,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8501,7 +8547,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8522,7 +8568,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8543,7 +8589,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8564,7 +8610,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8585,7 +8631,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8606,7 +8652,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8627,7 +8673,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8648,7 +8694,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8669,7 +8715,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8690,7 +8736,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8711,7 +8757,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8732,7 +8778,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8753,7 +8799,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8774,7 +8820,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8795,7 +8841,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8816,7 +8862,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8837,7 +8883,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8846,7 +8892,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8855,7 +8901,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8864,7 +8910,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8873,7 +8919,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8882,7 +8928,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8891,7 +8937,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8900,7 +8946,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8909,7 +8955,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8918,7 +8964,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8927,7 +8973,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8936,7 +8982,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8945,7 +8991,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8954,7 +9000,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8963,7 +9009,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8972,7 +9018,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8981,7 +9027,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8990,7 +9036,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8999,7 +9045,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9008,7 +9054,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9017,7 +9063,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9026,7 +9072,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9035,7 +9081,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9044,7 +9090,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9053,7 +9099,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9062,7 +9108,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9071,7 +9117,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9080,7 +9126,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9089,7 +9135,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9098,7 +9144,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
